--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints7.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints7.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.094913725244043e-06</v>
+        <v>5.732321854859163e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.112531203213732e-06</v>
+        <v>5.966371597381545e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.129147142925137e-06</v>
+        <v>6.181354547019614e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.144883742277111e-06</v>
+        <v>6.378928294848403e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.159863199168509e-06</v>
+        <v>6.560750431942937e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.174207711498183e-06</v>
+        <v>6.728478549378249e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.188039477164988e-06</v>
+        <v>6.883770238229371e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.201480694067776e-06</v>
+        <v>7.028283089571327e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.2146535601054e-06</v>
+        <v>7.163674694479148e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.227680273176716e-06</v>
+        <v>7.291602644027867e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.240683031180568e-06</v>
+        <v>7.413724529292455e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.253784032015824e-06</v>
+        <v>7.531697941348059e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.267105473581331e-06</v>
+        <v>7.647180471269646e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.280769553775941e-06</v>
+        <v>7.761829710132251e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.294898470498509e-06</v>
+        <v>7.877303249010896e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.309614421647889e-06</v>
+        <v>7.995258678980621e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.325039605122932e-06</v>
+        <v>8.117353591116449e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.341296218822493e-06</v>
+        <v>8.24524557649341e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.358506460645425e-06</v>
+        <v>8.380592226186536e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.376792528490582e-06</v>
+        <v>8.525051131270856e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.396276620256818e-06</v>
+        <v>8.6802798828214e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.417080933842985e-06</v>
+        <v>8.847936071913198e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.439327667147936e-06</v>
+        <v>9.02967728962128e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.463139018070526e-06</v>
+        <v>9.227161127020673e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>1.488637184509608e-06</v>
+        <v>9.44204517518641e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>1.515944364364035e-06</v>
+        <v>9.675987025193521e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.545182755532661e-06</v>
+        <v>9.930644268117036e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.57647455591434e-06</v>
+        <v>1.020767449503198e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>1.609941963407906e-06</v>
+        <v>1.050873529701324e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>1.645707175912248e-06</v>
+        <v>1.083548426513613e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>1.683892391326202e-06</v>
+        <v>1.118957899047554e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.724619807548621e-06</v>
+        <v>1.157267706410649e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.76801162247836e-06</v>
+        <v>1.198643607710404e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.814190034014272e-06</v>
+        <v>1.243251362054319e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.86327724005521e-06</v>
+        <v>1.291256728549898e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.915395438500028e-06</v>
+        <v>1.342825466304645e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.970666827247579e-06</v>
+        <v>1.398123334426061e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>2.029213604196716e-06</v>
+        <v>1.457316092021651e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>2.091157967246293e-06</v>
+        <v>1.520569498198916e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>2.156622114295163e-06</v>
+        <v>1.588049312065361e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>2.22572824324218e-06</v>
+        <v>1.659921292728487e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>2.298598551986198e-06</v>
+        <v>1.736351199295798e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>2.375355238426069e-06</v>
+        <v>1.817504790874798e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>2.456120500460646e-06</v>
+        <v>1.903547826572988e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>2.541016535988785e-06</v>
+        <v>1.994646065497872e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>2.630165542909338e-06</v>
+        <v>2.090965266756953e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>2.723689719121158e-06</v>
+        <v>2.192671189457734e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>2.821713000061887e-06</v>
+        <v>2.299930976079311e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>2.924782712734361e-06</v>
+        <v>2.41324885963026e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>3.034419400160546e-06</v>
+        <v>2.533903915912688e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>3.152279833188956e-06</v>
+        <v>2.663283680872822e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>3.280020782668105e-06</v>
+        <v>2.802775690456888e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>3.419299019446507e-06</v>
+        <v>2.95376748061111e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>3.571771314372678e-06</v>
+        <v>3.11764658728172e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>3.739094438295128e-06</v>
+        <v>3.295800546414941e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>3.922925162062374e-06</v>
+        <v>3.489616893957001e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>4.124920256522929e-06</v>
+        <v>3.700483165854128e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>4.346736492525307e-06</v>
+        <v>3.929786898052546e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>4.590030640918022e-06</v>
+        <v>4.178915626498485e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>4.856459472549589e-06</v>
+        <v>4.449256887138169e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>5.147679758268522e-06</v>
+        <v>4.742198215917827e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>5.465348268923332e-06</v>
+        <v>5.059127148783684e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>5.811121775362537e-06</v>
+        <v>5.401431221681968e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>6.186657048434649e-06</v>
+        <v>5.770497970558905e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>6.593610858988183e-06</v>
+        <v>6.167714931360724e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>7.03363997787143e-06</v>
+        <v>6.594469640033434e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>7.509586583398803e-06</v>
+        <v>7.053386907617726e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>8.036995705710949e-06</v>
+        <v>7.560350211600919e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>8.63912353489809e-06</v>
+        <v>8.139291592036135e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>9.339334677467656e-06</v>
+        <v>8.814256249165457e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>1.016099373992708e-05</v>
+        <v>9.609289383230971e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>1.112746532878378e-05</v>
+        <v>1.054843619447476e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>1.22621140505452e-05</v>
+        <v>1.165574188313892e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.358830451171876e-05</v>
+        <v>1.295525164946551e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>1.512940131881188e-05</v>
+        <v>1.447101069369664e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>1.690876907833201e-05</v>
+        <v>1.62270642160744e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>1.894977239678655e-05</v>
+        <v>1.824745741684084e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>2.127577588068296e-05</v>
+        <v>2.055623549623808e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>2.391014413652865e-05</v>
+        <v>2.317744365450819e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>2.687624177083104e-05</v>
+        <v>2.613512709189325e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>3.019195593796144e-05</v>
+        <v>2.944778787661558e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>3.381321770461674e-05</v>
+        <v>3.307122907654634e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>3.765678799399232e-05</v>
+        <v>3.692161392861595e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>4.163880997759939e-05</v>
+        <v>4.091448051063793e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>4.567542682694735e-05</v>
+        <v>4.49653669004239e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>4.968278171355135e-05</v>
+        <v>4.898981117579134e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>5.357701780892074e-05</v>
+        <v>5.290335141455185e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>5.727427828456677e-05</v>
+        <v>5.662152569451893e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>6.069070631200072e-05</v>
+        <v>6.005987209350616e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>6.374244506273386e-05</v>
+        <v>6.313392868932703e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>6.634563770827748e-05</v>
+        <v>6.575923355979514e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>6.841642742014281e-05</v>
+        <v>6.785132478272399e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>6.987095736984115e-05</v>
+        <v>6.932574043592712e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>7.062537072888373e-05</v>
+        <v>7.009801859721808e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>7.060363203733793e-05</v>
+        <v>7.009156060212237e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>6.982317518213713e-05</v>
+        <v>6.932373772982829e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>6.83629681999203e-05</v>
+        <v>6.787378496966054e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>6.630306146439938e-05</v>
+        <v>6.582202544472446e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>6.372350534928651e-05</v>
+        <v>6.324878227812546e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>6.070435022829363e-05</v>
+        <v>6.023437859296889e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>5.732564647513284e-05</v>
+        <v>5.685913751236015e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>5.366744446351615e-05</v>
+        <v>5.320338215940462e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>4.98097945671575e-05</v>
+        <v>4.934743565720957e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>4.583274715976515e-05</v>
+        <v>4.537162112887663e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>4.1816352615053e-05</v>
+        <v>4.135626169751299e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>3.784066130673304e-05</v>
+        <v>3.738168048622406e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>3.398572360851732e-05</v>
+        <v>3.352820061811518e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>3.03315898941179e-05</v>
+        <v>2.987614521629177e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>2.695831053724678e-05</v>
+        <v>2.650583740385918e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>2.394014049780601e-05</v>
+        <v>2.349169897423187e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>2.126993488426609e-05</v>
+        <v>2.082526422118407e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.888049958996358e-05</v>
+        <v>1.843692077531714e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.670323948371501e-05</v>
+        <v>1.625562963785463e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.467896897530849e-05</v>
+        <v>1.42203552803909e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.280281384037953e-05</v>
+        <v>1.232780166900707e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.108934356428301e-05</v>
+        <v>1.05953437647524e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>9.553152324268574e-06</v>
+        <v>9.040382779121134e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>8.208692347058382e-06</v>
+        <v>7.680163109047666e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>7.059477835175098e-06</v>
+        <v>6.519845776497736e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>6.090507524919478e-06</v>
+        <v>5.544137531532209e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>5.284989812926536e-06</v>
+        <v>4.735767313127624e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>4.626133095831562e-06</v>
+        <v>4.077464060260798e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>4.097145770268936e-06</v>
+        <v>3.551956711907634e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>3.681236232874021e-06</v>
+        <v>3.14197420704502e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>3.361612880281826e-06</v>
+        <v>2.830245484649492e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>3.121484109127362e-06</v>
+        <v>2.599499483697581e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>2.944058316045635e-06</v>
+        <v>2.432465143165824e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>2.812543897671656e-06</v>
+        <v>2.311871402030755e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>2.710149250640435e-06</v>
+        <v>2.220447199268906e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>2.620082771586981e-06</v>
+        <v>2.140921473856813e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>2.525552857146302e-06</v>
+        <v>2.056023164771011e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>2.40977394754109e-06</v>
+        <v>1.948487686384671e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>2.264322577414247e-06</v>
+        <v>1.810010011693923e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>2.10573256144319e-06</v>
+        <v>1.65902556917194e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.95517331110578e-06</v>
+        <v>1.518936593357322e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.833814237879877e-06</v>
+        <v>1.413145318788667e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.762160794709888e-06</v>
+        <v>1.364268625185001e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.746804029781817e-06</v>
+        <v>1.378464917394007e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.781134982662729e-06</v>
+        <v>1.446279139685758e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.858023738053862e-06</v>
+        <v>1.557640031561429e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.970340380656578e-06</v>
+        <v>1.70247633252237e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>2.110954995172133e-06</v>
+        <v>1.870716782069774e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>2.27273766630181e-06</v>
+        <v>2.052290119704881e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>2.448558478746893e-06</v>
+        <v>2.237125084928928e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>2.631287517208667e-06</v>
+        <v>2.415150417243155e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>2.813796112347208e-06</v>
+        <v>2.57629681300503e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>2.991687982457408e-06</v>
+        <v>2.714786354289031e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>3.169092941860167e-06</v>
+        <v>2.83823189036592e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>3.351799176030935e-06</v>
+        <v>2.956850846151389e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>3.545594870445166e-06</v>
+        <v>3.080860646561132e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>3.75626821057831e-06</v>
+        <v>3.220478716510841e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>3.989607381905822e-06</v>
+        <v>3.385922480916209e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>4.251400569903151e-06</v>
+        <v>3.587409364692929e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>4.547435960045751e-06</v>
+        <v>3.835156792756693e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>4.883501737809071e-06</v>
+        <v>4.139382190023195e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>5.26652087428163e-06</v>
+        <v>4.510740144822013e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>5.710960395307548e-06</v>
+        <v>4.962791507858228e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>6.234364865313568e-06</v>
+        <v>5.510282717015381e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>6.854287927011335e-06</v>
+        <v>6.167963707484317e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>7.588283223112104e-06</v>
+        <v>6.95058441445547e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>8.453904396328229e-06</v>
+        <v>7.87289477312045e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>9.468705089371021e-06</v>
+        <v>8.949644718669746e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.065023894495213e-05</v>
+        <v>1.019558418629421e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.201605960578319e-05</v>
+        <v>1.16254631111847e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.358372071457587e-05</v>
+        <v>1.325403142853205e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.537077591404179e-05</v>
+        <v>1.509603907352712e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.73947788468926e-05</v>
+        <v>1.716623598136075e-05</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.967328315583994e-05</v>
+        <v>1.947937208722379e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>2.222382772361434e-05</v>
+        <v>2.205018339839619e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>2.504352906756526e-05</v>
+        <v>2.48741348348203e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>2.806855166764949e-05</v>
+        <v>2.788917535224522e-05</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>3.122373869520652e-05</v>
+        <v>3.102257081839037e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>3.44339333215759e-05</v>
+        <v>3.42015871009752e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>3.762397871809711e-05</v>
+        <v>3.735349006771917e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>4.07187180561097e-05</v>
+        <v>4.040554558634171e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>4.364299450695318e-05</v>
+        <v>4.328501952456228e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>4.632165124196584e-05</v>
+        <v>4.591917775009912e-05</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>4.867953143248981e-05</v>
+        <v>4.823528613067424e-05</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>5.064229363370743e-05</v>
+        <v>5.016140202118568e-05</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>5.217109571069773e-05</v>
+        <v>5.1660041699014e-05</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>5.327553854893765e-05</v>
+        <v>5.274074472986738e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>5.396870584174394e-05</v>
+        <v>5.341643141574795e-05</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>5.426368128243341e-05</v>
+        <v>5.37000220586578e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>5.417354856432284e-05</v>
+        <v>5.360443696059903e-05</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>5.3711391380729e-05</v>
+        <v>5.314259642357372e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>5.289029342496871e-05</v>
+        <v>5.232742074958401e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>5.172333839035872e-05</v>
+        <v>5.117183024063194e-05</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>5.022362495683916e-05</v>
+        <v>4.968875976877226e-05</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>4.841377543852767e-05</v>
+        <v>4.790040311968637e-05</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>4.634224753969453e-05</v>
+        <v>4.585407134432198e-05</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>4.406183775918673e-05</v>
+        <v>4.360129368633358e-05</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>4.162534259585132e-05</v>
+        <v>4.119359938937573e-05</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>3.908555854853537e-05</v>
+        <v>3.868251769710299e-05</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>3.64952821160859e-05</v>
+        <v>3.611957785316988e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>3.390730979734993e-05</v>
+        <v>3.355630910123095e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>3.137443809117452e-05</v>
+        <v>3.104424068494076e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>2.894946349640783e-05</v>
+        <v>2.863490184795494e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>2.667845403520334e-05</v>
+        <v>2.63733444499061e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>2.456894169092542e-05</v>
+        <v>2.426752239597356e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>2.261476312909233e-05</v>
+        <v>2.23122053540967e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>2.080973858157185e-05</v>
+        <v>2.050214717183391e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.91476882802318e-05</v>
+        <v>1.883210169674358e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.762243245693997e-05</v>
+        <v>1.72968227763841e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.622779134356415e-05</v>
+        <v>1.589106425831386e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.495758517197214e-05</v>
+        <v>1.460957999009123e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.380563417403173e-05</v>
+        <v>1.344712381927461e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.27657660168495e-05</v>
+        <v>1.239844135782761e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.183203386438292e-05</v>
+        <v>1.145802844756616e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.099875157864892e-05</v>
+        <v>1.062009216976444e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>1.026024754361519e-05</v>
+        <v>9.878823520550653e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>9.610850143249358e-06</v>
+        <v>9.228413496052947e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>9.044887761519113e-06</v>
+        <v>8.663053092399499e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>8.556688782392117e-06</v>
+        <v>8.176933305718477e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>8.140581589836217e-06</v>
+        <v>7.764245132138235e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>7.790894567818679e-06</v>
+        <v>7.419179567786546e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>7.501956100307386e-06</v>
+        <v>7.135927608791796e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>7.268094571270003e-06</v>
+        <v>6.908680251282159e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>7.083638364674197e-06</v>
+        <v>6.731628491385802e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>6.94291586448763e-06</v>
+        <v>6.598963325230894e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>6.840255454677972e-06</v>
+        <v>6.504875748945609e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>6.769985519212886e-06</v>
+        <v>6.443556758658115e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>6.726434442060036e-06</v>
+        <v>6.409197350496582e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>6.703930607187088e-06</v>
+        <v>6.39598852058918e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>6.696802398561709e-06</v>
+        <v>6.398121265064082e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>6.699378200151563e-06</v>
+        <v>6.409786580049455e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>6.705986395924313e-06</v>
+        <v>6.425175461673467e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>6.710955369847631e-06</v>
+        <v>6.438478906064296e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>6.708613505889174e-06</v>
+        <v>6.443887909350104e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>6.693289188016614e-06</v>
+        <v>6.435593467659065e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>6.659310800197611e-06</v>
+        <v>6.407786577119348e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>6.601006726399835e-06</v>
+        <v>6.354658233859126e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>6.512705350590948e-06</v>
+        <v>6.270399434006566e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>6.388735056738615e-06</v>
+        <v>6.149201173689837e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>6.223424228810595e-06</v>
+        <v>5.985254449037204e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>6.011187974746632e-06</v>
+        <v>5.772839686981508e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>5.752151164797581e-06</v>
+        <v>5.512125290129368e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>5.455592907920618e-06</v>
+        <v>5.212719622311359e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>5.131616422417965e-06</v>
+        <v>4.885080878841702e-06</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>4.79032492659184e-06</v>
+        <v>4.539667255034627e-06</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>4.441821638744468e-06</v>
+        <v>4.186936946204357e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>4.096209777178065e-06</v>
+        <v>3.837348147665118e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>3.763592560194856e-06</v>
+        <v>3.501359054731133e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>3.454073206097056e-06</v>
+        <v>3.189427862716629e-06</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>3.17775493318689e-06</v>
+        <v>2.912012766935831e-06</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.944740959766575e-06</v>
+        <v>2.679571962702963e-06</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>2.765134504138333e-06</v>
+        <v>2.502563645332251e-06</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>2.649038784604384e-06</v>
+        <v>2.391446010137919e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>2.606557019466947e-06</v>
+        <v>2.356677252434193e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>2.647689265024652e-06</v>
+        <v>2.408608302949058e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>2.774801201774577e-06</v>
+        <v>2.549652110081438e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>2.977510058288135e-06</v>
+        <v>2.768966185408773e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>3.244222014071591e-06</v>
+        <v>3.0544488300205e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>3.563343248630929e-06</v>
+        <v>3.393998345005749e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>3.923279941472212e-06</v>
+        <v>3.775513031453737e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>4.312438272101504e-06</v>
+        <v>4.186891190453688e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>4.719224420024868e-06</v>
+        <v>4.616031123094815e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>5.132044564748367e-06</v>
+        <v>5.05083113046634e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>5.539304885778066e-06</v>
+        <v>5.47918951365748e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>5.92941156262003e-06</v>
+        <v>5.889004573757457e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>6.29077077478032e-06</v>
+        <v>6.268174611855484e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>6.611788701765001e-06</v>
+        <v>6.604597929040783e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>6.880871523080136e-06</v>
+        <v>6.886172826402575e-06</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>7.086722661214056e-06</v>
+        <v>7.101109119581698e-06</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>7.225670987847367e-06</v>
+        <v>7.245608195182102e-06</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>7.302136668215843e-06</v>
+        <v>7.324351221785018e-06</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>7.320930382117967e-06</v>
+        <v>7.34242863236534e-06</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>7.286862809352222e-06</v>
+        <v>7.304930859897954e-06</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>7.204744629717081e-06</v>
+        <v>7.216948337357742e-06</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>7.079386523011034e-06</v>
+        <v>7.083571497719599e-06</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>6.915599169032561e-06</v>
+        <v>6.909890773958411e-06</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>6.718193247580141e-06</v>
+        <v>6.700996599049063e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>6.491979438452255e-06</v>
+        <v>6.461979405966447e-06</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>6.241768421447387e-06</v>
+        <v>6.197929627685446e-06</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>5.972370876364016e-06</v>
+        <v>5.913937697180951e-06</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>5.688597483000625e-06</v>
+        <v>5.61509404742785e-06</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>5.395258921155693e-06</v>
+        <v>5.306489111401029e-06</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>5.097165870627706e-06</v>
+        <v>4.993213322075376e-06</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>4.799129011215427e-06</v>
+        <v>4.680357112426081e-06</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>4.505959022716479e-06</v>
+        <v>4.373010915427128e-06</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>4.222466584930473e-06</v>
+        <v>4.076265164054588e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>3.953462377655049e-06</v>
+        <v>3.795210291282471e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>3.703431864625558e-06</v>
+        <v>3.534590921794686e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>3.473467271406747e-06</v>
+        <v>3.295543586993e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>3.262642570148374e-06</v>
+        <v>3.07705877187094e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>3.070005003645107e-06</v>
+        <v>2.878098539601435e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>2.894601814691608e-06</v>
+        <v>2.697624953357409e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>2.735480246082541e-06</v>
+        <v>2.534600076311787e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>2.591687540612574e-06</v>
+        <v>2.387985971637498e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>2.462270941076369e-06</v>
+        <v>2.256744702507464e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>2.346277690268593e-06</v>
+        <v>2.139838332094613e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>2.242755030983908e-06</v>
+        <v>2.036228923571871e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>2.150750206016982e-06</v>
+        <v>1.944878540112163e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>2.069310458162478e-06</v>
+        <v>1.864749244888415e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.99748303021506e-06</v>
+        <v>1.794803101073553e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.934315164969395e-06</v>
+        <v>1.734002171840504e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.878854105220147e-06</v>
+        <v>1.681308520362192e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.830147093761978e-06</v>
+        <v>1.635684209811544e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.787241373389557e-06</v>
+        <v>1.596091303361485e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>1.749184186897547e-06</v>
+        <v>1.561491864184942e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>1.715023874144096e-06</v>
+        <v>1.530849149846517e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>1.68405058385816e-06</v>
+        <v>1.503389679341756e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>1.65609857779661e-06</v>
+        <v>1.478932356775353e-06</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>1.631076458872577e-06</v>
+        <v>1.457377022733402e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>1.60889282999919e-06</v>
+        <v>1.438623517801997e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>1.58945629408958e-06</v>
+        <v>1.422571682567231e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>1.572675454056877e-06</v>
+        <v>1.409121357615199e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.55845891281421e-06</v>
+        <v>1.398172383531995e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.546715273274709e-06</v>
+        <v>1.389624600903712e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.537353138351506e-06</v>
+        <v>1.383377850316446e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.53028111095773e-06</v>
+        <v>1.379331972356289e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.52540779400651e-06</v>
+        <v>1.377386807609336e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.522641790410977e-06</v>
+        <v>1.377442196661681e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.521891703084261e-06</v>
+        <v>1.379397980099417e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.523066134939492e-06</v>
+        <v>1.383153998508639e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.526073688889796e-06</v>
+        <v>1.388610092475435e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.530822967848315e-06</v>
+        <v>1.395666102585917e-06</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.53722257472816e-06</v>
+        <v>1.404221869426151e-06</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.545181112442477e-06</v>
+        <v>1.414177233582254e-06</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.554607183904392e-06</v>
+        <v>1.425432035640313e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.565409392027033e-06</v>
+        <v>1.437886116186422e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.577496339723533e-06</v>
+        <v>1.451439315806674e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.590776629907019e-06</v>
+        <v>1.465991475087164e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.605158865490623e-06</v>
+        <v>1.481442434613986e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.620551649387474e-06</v>
+        <v>1.497692034973234e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.636863584510702e-06</v>
+        <v>1.514640116751001e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.654003273773438e-06</v>
+        <v>1.532186520533381e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.671879320088811e-06</v>
+        <v>1.550231086906469e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.690400326369951e-06</v>
+        <v>1.568673656456359e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>1.70947489552999e-06</v>
+        <v>1.587414069769144e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>1.729011630482056e-06</v>
+        <v>1.606352167430919e-06</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>1.748919134139279e-06</v>
+        <v>1.625387790027777e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>1.76910600941479e-06</v>
+        <v>1.644420778145813e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>1.789480859221718e-06</v>
+        <v>1.663350972371121e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>1.809952286473194e-06</v>
+        <v>1.682078213289793e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>1.830428894082349e-06</v>
+        <v>1.700502341487926e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>1.850819284962311e-06</v>
+        <v>1.718523197551611e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>1.87103206202621e-06</v>
+        <v>1.736040622066945e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>1.891087064506407e-06</v>
+        <v>1.753072152580889e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.912040424191158e-06</v>
+        <v>1.770731807405376e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.935512175936956e-06</v>
+        <v>1.790730259594386e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.963128000126327e-06</v>
+        <v>1.814784155621925e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.996513577141797e-06</v>
+        <v>1.844610141961998e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>2.037294587365895e-06</v>
+        <v>1.881924865088611e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>2.087096711181146e-06</v>
+        <v>1.92844497147577e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>2.147545628970079e-06</v>
+        <v>1.98588710759748e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>2.220267021115219e-06</v>
+        <v>2.055967919927746e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>2.306886567999093e-06</v>
+        <v>2.140404054940575e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>2.409029950004229e-06</v>
+        <v>2.240912159109973e-06</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>2.528322847513153e-06</v>
+        <v>2.359208878909944e-06</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>2.666390940908393e-06</v>
+        <v>2.497010860814495e-06</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>2.824859910572475e-06</v>
+        <v>2.656034751297631e-06</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>3.005355436887739e-06</v>
+        <v>2.83799719683317e-06</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>3.209503200237274e-06</v>
+        <v>3.044614843895682e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>3.438928881002809e-06</v>
+        <v>3.277604338958369e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>3.695258159567503e-06</v>
+        <v>3.538682328495874e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>3.980116716313671e-06</v>
+        <v>3.829565458981992e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>4.295130231623842e-06</v>
+        <v>4.151970376890727e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>4.641924385880543e-06</v>
+        <v>4.507613728696086e-06</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>5.022124859466299e-06</v>
+        <v>4.898212160872073e-06</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>5.437357332763639e-06</v>
+        <v>5.325482319892695e-06</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>5.88923506739959e-06</v>
+        <v>5.791127812352989e-06</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>6.376127724817545e-06</v>
+        <v>6.293446416154138e-06</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>6.888842246422986e-06</v>
+        <v>6.822794940073384e-06</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>7.417109809481191e-06</v>
+        <v>7.36840062445502e-06</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>7.950661591257444e-06</v>
+        <v>7.919490709643351e-06</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>8.479228769017027e-06</v>
+        <v>8.465292435982676e-06</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>8.992542520025214e-06</v>
+        <v>8.995033043817287e-06</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>9.480334021547288e-06</v>
+        <v>9.497939773491486e-06</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>9.93233445084853e-06</v>
+        <v>9.963239865349575e-06</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>1.033827498519422e-05</v>
+        <v>1.038016055973585e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>1.068788680184964e-05</v>
+        <v>1.073792909699461e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>1.097090107808007e-05</v>
+        <v>1.102577271747015e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>1.117704899115079e-05</v>
+        <v>1.123291866150677e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>1.129606171832708e-05</v>
+        <v>1.134859416944877e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.131785780405368e-05</v>
+        <v>1.136222540662677e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.124195676944719e-05</v>
+        <v>1.127343175448618e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.108188571592273e-05</v>
+        <v>1.109670423702597e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.085228004333688e-05</v>
+        <v>1.084771054244494e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.056777515154623e-05</v>
+        <v>1.054211835894192e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.024300644040738e-05</v>
+        <v>1.01955953747157e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>9.89260930977691e-06</v>
+        <v>9.823809277965126e-06</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>9.531219159511403e-06</v>
+        <v>9.442427756888997e-06</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>9.173471389467454e-06</v>
+        <v>9.067118499686138e-06</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>8.834001399501646e-06</v>
+        <v>8.713549194555363e-06</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>8.525838305078331e-06</v>
+        <v>8.3956468105234e-06</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>8.251074586241752e-06</v>
+        <v>8.115486361231072e-06</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>8.00724419373503e-06</v>
+        <v>7.870202813967919e-06</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>7.791865987008189e-06</v>
+        <v>7.656914781694607e-06</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>7.602458825511262e-06</v>
+        <v>7.472740877371812e-06</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>7.436541568694275e-06</v>
+        <v>7.314799713960201e-06</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>7.291633076007385e-06</v>
+        <v>7.180209904420563e-06</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>7.165252206900348e-06</v>
+        <v>7.066090061713313e-06</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>7.054917820823334e-06</v>
+        <v>6.969558798799255e-06</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>6.95814877722638e-06</v>
+        <v>6.887734728639069e-06</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>6.87246393555951e-06</v>
+        <v>6.817736464193418e-06</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>6.795382155272754e-06</v>
+        <v>6.756682618422975e-06</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>6.724422295816137e-06</v>
+        <v>6.701691804288406e-06</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>6.657103216639693e-06</v>
+        <v>6.649882634750387e-06</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>6.590943777193445e-06</v>
+        <v>6.598373722769582e-06</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>6.523462836927426e-06</v>
+        <v>6.544283681306666e-06</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>6.452179255291661e-06</v>
+        <v>6.484731123322307e-06</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>6.374611891736181e-06</v>
+        <v>6.416834661777175e-06</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>6.288333607744553e-06</v>
+        <v>6.337773163726842e-06</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>6.192796791077245e-06</v>
+        <v>6.246822623820713e-06</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>6.089775346115537e-06</v>
+        <v>6.145849325880989e-06</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>5.981186815243602e-06</v>
+        <v>6.036879821358533e-06</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>5.86894874084562e-06</v>
+        <v>5.921940661704204e-06</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>5.754978665305766e-06</v>
+        <v>5.803058398368865e-06</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>5.641194131008217e-06</v>
+        <v>5.682259582803373e-06</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>5.529512680337147e-06</v>
+        <v>5.561570766458593e-06</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>5.421851855676734e-06</v>
+        <v>5.443018500785383e-06</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>5.320129199411156e-06</v>
+        <v>5.328629337234605e-06</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>5.226262253924583e-06</v>
+        <v>5.220429827257118e-06</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>5.142168561601201e-06</v>
+        <v>5.120446522303787e-06</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>5.069380044055858e-06</v>
+        <v>5.030370710227159e-06</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>5.007505845882141e-06</v>
+        <v>4.950221992097893e-06</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>4.955557007615649e-06</v>
+        <v>4.879499969716384e-06</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>4.912544379528162e-06</v>
+        <v>4.817704079465246e-06</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>4.877478811891453e-06</v>
+        <v>4.764333757727089e-06</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>4.849371154977299e-06</v>
+        <v>4.718888440884521e-06</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>4.827232259057476e-06</v>
+        <v>4.680867565320157e-06</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>4.810096357253569e-06</v>
+        <v>4.64977786466606e-06</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>4.797436002867147e-06</v>
+        <v>4.625262862198014e-06</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>4.789113030347524e-06</v>
+        <v>4.607087566881804e-06</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>4.7850028058858e-06</v>
+        <v>4.595021210628499e-06</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>4.784980695673075e-06</v>
+        <v>4.588833025349167e-06</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>4.788922065900454e-06</v>
+        <v>4.588292242954879e-06</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>4.796702282759023e-06</v>
+        <v>4.593168095356697e-06</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>4.808196712439901e-06</v>
+        <v>4.603229814465701e-06</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>4.823280721134183e-06</v>
+        <v>4.618246632192957e-06</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>4.841829675032968e-06</v>
+        <v>4.637987780449536e-06</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>4.863718940327361e-06</v>
+        <v>4.662222491146507e-06</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>4.888823883208458e-06</v>
+        <v>4.690719996194939e-06</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>4.917019869867364e-06</v>
+        <v>4.723249527505905e-06</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>4.948182266495176e-06</v>
+        <v>4.759580316990468e-06</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>4.982186439282999e-06</v>
+        <v>4.799481596559705e-06</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>5.018907754421929e-06</v>
+        <v>4.842722598124679e-06</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>5.058221578103071e-06</v>
+        <v>4.889072553596464e-06</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>5.100003276517523e-06</v>
+        <v>4.938300694886129e-06</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>5.144128215856388e-06</v>
+        <v>4.990176253904743e-06</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>5.190471762310768e-06</v>
+        <v>5.044468462563376e-06</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>5.238909282071758e-06</v>
+        <v>5.100946552773096e-06</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>5.289316141330467e-06</v>
+        <v>5.159379756444975e-06</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>5.341567706277988e-06</v>
+        <v>5.21953730549008e-06</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.395539343105426e-06</v>
+        <v>5.281188431819484e-06</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.451106418003882e-06</v>
+        <v>5.344102367344253e-06</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.508144297164456e-06</v>
+        <v>5.40804834397546e-06</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.566528346778249e-06</v>
+        <v>5.472795593624172e-06</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.626133933036364e-06</v>
+        <v>5.538113348201462e-06</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.686856244036797e-06</v>
+        <v>5.603796493911757e-06</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.748877206810831e-06</v>
+        <v>5.670011025791259e-06</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.812594546147989e-06</v>
+        <v>5.737202232842433e-06</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.87841126022182e-06</v>
+        <v>5.805822229089253e-06</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.946730347205879e-06</v>
+        <v>5.876323128555691e-06</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>6.01795480527371e-06</v>
+        <v>5.94915704526571e-06</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>6.092487632598865e-06</v>
+        <v>6.024776093243283e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>6.170731827354891e-06</v>
+        <v>6.103632386512378e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>6.253090387715337e-06</v>
+        <v>6.186178039096965e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>6.339966311853754e-06</v>
+        <v>6.272865165021014e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>6.431762597943688e-06</v>
+        <v>6.364145878308493e-06</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>6.528882244158691e-06</v>
+        <v>6.46047229298337e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>6.631728248672312e-06</v>
+        <v>6.562296523069618e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>6.740703609658098e-06</v>
+        <v>6.670070682591201e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>6.856211325289599e-06</v>
+        <v>6.784246885572096e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>6.978654393740243e-06</v>
+        <v>6.905277246036144e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>7.108435813183816e-06</v>
+        <v>7.033613878007553e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>7.245958581793751e-06</v>
+        <v>7.169708895510177e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>7.391625697743596e-06</v>
+        <v>7.314014412567985e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>7.545840159206902e-06</v>
+        <v>7.466982543204945e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>7.709004964357213e-06</v>
+        <v>7.629065401445027e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>7.88152311136809e-06</v>
+        <v>7.800715101312205e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>8.063797598413072e-06</v>
+        <v>7.982383756830442e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>8.256231423665709e-06</v>
+        <v>8.17452348202371e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>8.459227585299552e-06</v>
+        <v>8.377586390915979e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>8.673189081488151e-06</v>
+        <v>8.592024597531216e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>8.898518910405054e-06</v>
+        <v>8.81829021589339e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>9.135620070223808e-06</v>
+        <v>9.056835360026474e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>9.384895559117965e-06</v>
+        <v>9.308112143954433e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>9.646748375261073e-06</v>
+        <v>9.572572681701239e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>9.921581516826682e-06</v>
+        <v>9.850669087290864e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>1.020979798198834e-05</v>
+        <v>1.014285347474727e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>1.05118007689196e-05</v>
+        <v>1.044957795809443e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>1.0827992875794e-05</v>
+        <v>1.077129465135632e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>1.11587773007851e-05</v>
+        <v>1.110845566855689e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>1.150455704206645e-05</v>
+        <v>1.146151312372013e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>1.186573509781159e-05</v>
+        <v>1.183091913087e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>1.224271243990691e-05</v>
+        <v>1.221712253615673e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>1.263576392200829e-05</v>
+        <v>1.262036878985359e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>1.304496625774359e-05</v>
+        <v>1.304058379394501e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>1.347037880209472e-05</v>
+        <v>1.347766545543796e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>1.391206091004359e-05</v>
+        <v>1.393151168133944e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>1.437007193657209e-05</v>
+        <v>1.44020203786564e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.484447123666214e-05</v>
+        <v>1.488908945439585e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.533531816529563e-05</v>
+        <v>1.539261681556474e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.584267207745448e-05</v>
+        <v>1.591250036917007e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.636659232812059e-05</v>
+        <v>1.644863802221882e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.690713827227586e-05</v>
+        <v>1.700092768171797e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.74643692649022e-05</v>
+        <v>1.756926725467448e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.803834466098151e-05</v>
+        <v>1.815355464809535e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.86291238154957e-05</v>
+        <v>1.875368776898754e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.923676608342667e-05</v>
+        <v>1.936956452435805e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.986133081975571e-05</v>
+        <v>2.000108282121324e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>2.050287737946594e-05</v>
+        <v>2.064814056656129e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>2.116146511753866e-05</v>
+        <v>2.13106356674086e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>2.183715338895579e-05</v>
+        <v>2.198846603076214e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>2.253002472482457e-05</v>
+        <v>2.268155911575646e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>2.32408283870264e-05</v>
+        <v>2.339069253713231e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>2.397106435849502e-05</v>
+        <v>2.411760116214695e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>2.472227267050882e-05</v>
+        <v>2.48640709241341e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>2.549599335434617e-05</v>
+        <v>2.563188775642746e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>2.629376644128546e-05</v>
+        <v>2.642283759236079e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>2.711713196260506e-05</v>
+        <v>2.723870636526777e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>2.796762994958334e-05</v>
+        <v>2.808128000848213e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>2.884680043349869e-05</v>
+        <v>2.89523444553376e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>2.975618344562947e-05</v>
+        <v>2.985368563916788e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>3.069731901725408e-05</v>
+        <v>3.07870894933067e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>3.167174717965088e-05</v>
+        <v>3.175434195108779e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>3.268100796409826e-05</v>
+        <v>3.275722894584484e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>3.372664140187457e-05</v>
+        <v>3.379753641091159e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>3.481018752425823e-05</v>
+        <v>3.487705027962177e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>3.593308604558924e-05</v>
+        <v>3.599745195615569e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>3.709313175230491e-05</v>
+        <v>3.715662486965449e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>3.828352693893282e-05</v>
+        <v>3.83476671228808e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>3.949718089217532e-05</v>
+        <v>3.956337150764564e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>4.072700289873483e-05</v>
+        <v>4.079653081576008e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>4.196590224531373e-05</v>
+        <v>4.203993783903517e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>4.320678821861442e-05</v>
+        <v>4.328638536928201e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>4.444257010533929e-05</v>
+        <v>4.452866619831161e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>4.566615719219074e-05</v>
+        <v>4.575957311793505e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>4.687045876587114e-05</v>
+        <v>4.69718989199634e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>4.8048473878671e-05</v>
+        <v>4.815852962666775e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>4.919641642069978e-05</v>
+        <v>4.93156901880225e-05</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>5.03145241042298e-05</v>
+        <v>5.044378469212628e-05</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>5.140328876354879e-05</v>
+        <v>5.154348115797714e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>5.246320223294446e-05</v>
+        <v>5.261544760457318e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>5.349475634670453e-05</v>
+        <v>5.366035205091247e-05</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>5.449844293911671e-05</v>
+        <v>5.46788625159931e-05</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>5.547475384446871e-05</v>
+        <v>5.567164701881314e-05</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>5.642418089704736e-05</v>
+        <v>5.663937357836975e-05</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>5.734721593114221e-05</v>
+        <v>5.758271021366289e-05</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>5.824435078104e-05</v>
+        <v>5.850232494368967e-05</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>5.911607728102852e-05</v>
+        <v>5.939888578744819e-05</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>5.996288726539544e-05</v>
+        <v>6.027306076393652e-05</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>6.078432857682625e-05</v>
+        <v>6.112436116269055e-05</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>6.157474779890502e-05</v>
+        <v>6.194592485887575e-05</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>6.232670976720528e-05</v>
+        <v>6.272870644508063e-05</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>6.303277774075617e-05</v>
+        <v>6.346365858205937e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>6.368551497858679e-05</v>
+        <v>6.41417339305661e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>6.42774847397263e-05</v>
+        <v>6.475388515135504e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>6.480125028320381e-05</v>
+        <v>6.529106490518033e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>6.524937486804844e-05</v>
+        <v>6.574422585279617e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>6.56144217532893e-05</v>
+        <v>6.610432065495668e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>6.588895419795554e-05</v>
+        <v>6.636230197241607e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>6.60655352972762e-05</v>
+        <v>6.650912255966189e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>6.613560529699547e-05</v>
+        <v>6.653637771369168e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>6.608680051381483e-05</v>
+        <v>6.643783950243031e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>6.590595251468837e-05</v>
+        <v>6.620774050603499e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>6.557989286656999e-05</v>
+        <v>6.584031330466268e-05</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>6.509545313641374e-05</v>
+        <v>6.532979047847052e-05</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>6.444035155590308e-05</v>
+        <v>6.467105622267393e-05</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>6.362849244945348e-05</v>
+        <v>6.387823904409401e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>6.270365680828827e-05</v>
+        <v>6.298742398547624e-05</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>6.171125442792979e-05</v>
+        <v>6.203589310730358e-05</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>6.069669510390047e-05</v>
+        <v>6.1060928470059e-05</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>5.969947032465194e-05</v>
+        <v>6.009488264509082e-05</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>5.872410468920257e-05</v>
+        <v>5.914098350651994e-05</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>5.776232677363278e-05</v>
+        <v>5.819180083734663e-05</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>5.680584603565838e-05</v>
+        <v>5.72398884964616e-05</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>5.584637193299525e-05</v>
+        <v>5.627780034275561e-05</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>5.487561392335922e-05</v>
+        <v>5.529809023511932e-05</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>5.388528146446616e-05</v>
+        <v>5.429331203244349e-05</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>5.286708401403191e-05</v>
+        <v>5.325601959361881e-05</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>5.181273102977233e-05</v>
+        <v>5.217876677753605e-05</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>5.071393196940433e-05</v>
+        <v>5.105410744308697e-05</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>4.956239629064053e-05</v>
+        <v>4.987459544915898e-05</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>4.835146049464074e-05</v>
+        <v>4.863440356706653e-05</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>4.708850371042943e-05</v>
+        <v>4.734167701907073e-05</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>4.578808552849456e-05</v>
+        <v>4.601170560511059e-05</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>4.446482340599775e-05</v>
+        <v>4.46598367026144e-05</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>4.313333480010559e-05</v>
+        <v>4.330141768901554e-05</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>4.180823716798337e-05</v>
+        <v>4.195179594174605e-05</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.050414796679647e-05</v>
+        <v>4.062631883823807e-05</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>3.923568465371019e-05</v>
+        <v>3.934033375592365e-05</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>3.801746468588988e-05</v>
+        <v>3.81091880722349e-05</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>3.686386653247422e-05</v>
+        <v>3.694797195349206e-05</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>3.578045823294963e-05</v>
+        <v>3.586229333195336e-05</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>3.476163308761909e-05</v>
+        <v>3.484573331522694e-05</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>3.380106415440616e-05</v>
+        <v>3.389109784931222e-05</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>3.289242449123443e-05</v>
+        <v>3.299119288020863e-05</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>3.202938715602749e-05</v>
+        <v>3.213882435391561e-05</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>3.12056252067089e-05</v>
+        <v>3.132679821643258e-05</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>3.041481170120225e-05</v>
+        <v>3.054792041375895e-05</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>2.96506196974311e-05</v>
+        <v>2.979499689189416e-05</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>2.890672225331905e-05</v>
+        <v>2.906083359683764e-05</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.817679242678967e-05</v>
+        <v>2.833823647458881e-05</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>2.745450327576653e-05</v>
+        <v>2.762001147114709e-05</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>2.673352785817321e-05</v>
+        <v>2.689896453251191e-05</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>2.600753923193331e-05</v>
+        <v>2.616790160468271e-05</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>2.527021832657825e-05</v>
+        <v>2.541963739767478e-05</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>2.452262327955352e-05</v>
+        <v>2.465520018706767e-05</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>2.378687734364102e-05</v>
+        <v>2.389907152615105e-05</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>2.308883925887606e-05</v>
+        <v>2.317989194947526e-05</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>2.245436776529394e-05</v>
+        <v>2.252630199159062e-05</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>2.190932160292998e-05</v>
+        <v>2.196694218704746e-05</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>2.147955951181949e-05</v>
+        <v>2.153045307039612e-05</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>2.119094023199779e-05</v>
+        <v>2.124547517618691e-05</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>2.104865072245273e-05</v>
+        <v>2.11178704651411e-05</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>2.095241060420166e-05</v>
+        <v>2.103728471230139e-05</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>2.079343583144224e-05</v>
+        <v>2.088386462067205e-05</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>2.057689469859764e-05</v>
+        <v>2.066273700967551e-05</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>2.034035487175929e-05</v>
+        <v>2.041456355106024e-05</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>2.012138627725678e-05</v>
+        <v>2.018000839554961e-05</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.995755884142116e-05</v>
+        <v>1.999973569386856e-05</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.988644249058207e-05</v>
+        <v>1.991440959674054e-05</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.994560715107e-05</v>
+        <v>1.99646942548899e-05</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>2.017118351258967e-05</v>
+        <v>2.018967942916536e-05</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>2.056328133074938e-05</v>
+        <v>2.058905135709269e-05</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>2.108428933202312e-05</v>
+        <v>2.112123300836335e-05</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>2.169481676053898e-05</v>
+        <v>2.174270076588867e-05</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>2.235547286042503e-05</v>
+        <v>2.240993101257997e-05</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>2.302840728608261e-05</v>
+        <v>2.30815574544169e-05</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>2.368677443296125e-05</v>
+        <v>2.373162578348195e-05</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>2.43085162405327e-05</v>
+        <v>2.434088658037915e-05</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>2.48715942956692e-05</v>
+        <v>2.489011794162253e-05</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>2.535397018524309e-05</v>
+        <v>2.536009796372617e-05</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>2.573371319914769e-05</v>
+        <v>2.573169466853376e-05</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>2.599736347966367e-05</v>
+        <v>2.599284871323363e-05</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>2.61458983510804e-05</v>
+        <v>2.614355490483071e-05</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>2.618170350601959e-05</v>
+        <v>2.618498395036816e-05</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>2.610716463710303e-05</v>
+        <v>2.611830655688913e-05</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>2.592466743695244e-05</v>
+        <v>2.594469343143676e-05</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>2.563690207809796e-05</v>
+        <v>2.566566400986574e-05</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>2.525114210552508e-05</v>
+        <v>2.528798718451451e-05</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>2.47782034460159e-05</v>
+        <v>2.482248903034657e-05</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>2.422899396645322e-05</v>
+        <v>2.428010092373012e-05</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>2.361442153371987e-05</v>
+        <v>2.367175424103335e-05</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>2.294539401469866e-05</v>
+        <v>2.300838035862446e-05</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>2.223281927627243e-05</v>
+        <v>2.230091065287168e-05</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>2.148760518532399e-05</v>
+        <v>2.15602765001432e-05</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>2.072065960873614e-05</v>
+        <v>2.079740927680721e-05</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.994286898166898e-05</v>
+        <v>2.002321885553676e-05</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>1.916265181174059e-05</v>
+        <v>1.924613889362002e-05</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>1.838369948679735e-05</v>
+        <v>1.846986005386673e-05</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>1.760916937285792e-05</v>
+        <v>1.769753718389637e-05</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>1.6842218835941e-05</v>
+        <v>1.693232513132837e-05</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>1.608600524206528e-05</v>
+        <v>1.617737874378222e-05</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>1.534368595724944e-05</v>
+        <v>1.543585286887735e-05</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>1.461841834751286e-05</v>
+        <v>1.471090235423392e-05</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>1.391335977887215e-05</v>
+        <v>1.400568204746932e-05</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>1.323166761734872e-05</v>
+        <v>1.332334679620572e-05</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>1.257649922895862e-05</v>
+        <v>1.266705144805994e-05</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>1.195101197972307e-05</v>
+        <v>1.203995085065398e-05</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>1.135836323565889e-05</v>
+        <v>1.144519985160544e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>1.08017103627854e-05</v>
+        <v>1.088595329853438e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>1.028420802138522e-05</v>
+        <v>1.036536338084615e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>9.807724010517969e-06</v>
+        <v>9.885318028382791e-06</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>9.37078418887939e-06</v>
+        <v>9.444421926461293e-06</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>8.97137892493936e-06</v>
+        <v>9.040753675202368e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>8.607498587167757e-06</v>
+        <v>8.672391874726737e-06</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>8.277133544034459e-06</v>
+        <v>8.337415125155119e-06</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>7.97827416400935e-06</v>
+        <v>8.03390202660823e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>7.708910815562308e-06</v>
+        <v>7.759931179206791e-06</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>7.467033867163216e-06</v>
+        <v>7.513581183071517e-06</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>7.250633687281951e-06</v>
+        <v>7.292930638323127e-06</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>7.057700644388392e-06</v>
+        <v>7.096058145082336e-06</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>6.886225106952423e-06</v>
+        <v>6.92104230346987e-06</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>6.734197443443921e-06</v>
+        <v>6.765961713606439e-06</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>6.599608022332768e-06</v>
+        <v>6.628894975612763e-06</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>6.480588549425586e-06</v>
+        <v>6.508024921188023e-06</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>6.37636586243927e-06</v>
+        <v>6.402342005340717e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>6.286678147544511e-06</v>
+        <v>6.31121378553303e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>6.211266476487976e-06</v>
+        <v>6.234009947243316e-06</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>6.149871921016332e-06</v>
+        <v>6.170100175949938e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>6.102235552876251e-06</v>
+        <v>6.118854157131256e-06</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>6.068098443814398e-06</v>
+        <v>6.079641576265626e-06</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>6.04720166557744e-06</v>
+        <v>6.051832118831408e-06</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>6.039286289912047e-06</v>
+        <v>6.034795470306961e-06</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>6.04236307552091e-06</v>
+        <v>6.02658075469162e-06</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>6.045339604182381e-06</v>
+        <v>6.018289622043571e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>6.034140397987004e-06</v>
+        <v>5.998747074431169e-06</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>5.994688248712274e-06</v>
+        <v>5.956776793361284e-06</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>5.912908417710633e-06</v>
+        <v>5.881204745127726e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>5.796939775542119e-06</v>
+        <v>5.781408353413312e-06</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>5.723803125617936e-06</v>
+        <v>5.72971036608184e-06</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>5.693761028717426e-06</v>
+        <v>5.717713429280952e-06</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>5.644551417735938e-06</v>
+        <v>5.672751436622169e-06</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>5.546382820788346e-06</v>
+        <v>5.561904828288899e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>5.424536281035595e-06</v>
+        <v>5.419288459768594e-06</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>5.309386344824565e-06</v>
+        <v>5.285217012498709e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>5.229588458449668e-06</v>
+        <v>5.197670781273121e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>5.185433293304363e-06</v>
+        <v>5.156113191791042e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>5.153940886214443e-06</v>
+        <v>5.128408195103306e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>5.112949008808728e-06</v>
+        <v>5.083753260043902e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>5.057018308518775e-06</v>
+        <v>5.016532318230882e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>4.99113997201056e-06</v>
+        <v>4.936838823456867e-06</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>4.920461111379311e-06</v>
+        <v>4.855000096649466e-06</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>4.848454842816127e-06</v>
+        <v>4.778170700886312e-06</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>4.774019858882542e-06</v>
+        <v>4.704835202834707e-06</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>4.695280609874044e-06</v>
+        <v>4.632010732341286e-06</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>4.610361546086122e-06</v>
+        <v>4.556714419252677e-06</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>4.517387117814262e-06</v>
+        <v>4.475963393415511e-06</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>4.414481775353955e-06</v>
+        <v>4.386774784676422e-06</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>4.299769969000687e-06</v>
+        <v>4.28616572288204e-06</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>4.171376149049949e-06</v>
+        <v>4.171153337878995e-06</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>4.027424765797225e-06</v>
+        <v>4.03875475951392e-06</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>3.868119367017351e-06</v>
+        <v>3.888170440438399e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>3.709773086576358e-06</v>
+        <v>3.735517994255195e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>3.576221085469489e-06</v>
+        <v>3.604814141527587e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>3.491340972030216e-06</v>
+        <v>3.520120178045598e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>3.479010354592018e-06</v>
+        <v>3.505497399599257e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>3.563102713077531e-06</v>
+        <v>3.585003023100242e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>3.759156790273898e-06</v>
+        <v>3.774459528136234e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>4.056896387753491e-06</v>
+        <v>4.06418417961538e-06</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>4.441062525281347e-06</v>
+        <v>4.439571243836614e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>4.8963962226225e-06</v>
+        <v>4.88601498709887e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>5.407638499541986e-06</v>
+        <v>5.388909675701079e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>5.959530375804845e-06</v>
+        <v>5.933649575942176e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>6.53681287117611e-06</v>
+        <v>6.505628954121092e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>7.124227005420819e-06</v>
+        <v>7.090242076536762e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>7.706312624924942e-06</v>
+        <v>7.67260678097127e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>8.265354629331922e-06</v>
+        <v>8.234742425743305e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>8.782221893488542e-06</v>
+        <v>8.75672263641037e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>9.237761374490024e-06</v>
+        <v>9.218590921763394e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>9.612820029428424e-06</v>
+        <v>9.600390790590112e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>9.888356195933401e-06</v>
+        <v>9.882279791983432e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>1.005784542949766e-05</v>
+        <v>1.005723160410378e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>1.013857371433792e-05</v>
+        <v>1.01425989269532e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>1.015049420513503e-05</v>
+        <v>1.015846532303744e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>1.011356005657002e-05</v>
+        <v>1.012491435486246e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>1.004762148149733e-05</v>
+        <v>1.006192623034446e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>9.96491061089548e-06</v>
+        <v>9.981832529498751e-06</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>9.864938332633484e-06</v>
+        <v>9.884192581193179e-06</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>9.74600707023746e-06</v>
+        <v>9.767352404404609e-06</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>9.606419247233524e-06</v>
+        <v>9.62965801810991e-06</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>9.444477287147792e-06</v>
+        <v>9.469455441285953e-06</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>9.258483613506375e-06</v>
+        <v>9.285090692909595e-06</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>9.04713311029318e-06</v>
+        <v>9.075298169953434e-06</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>8.812369183022462e-06</v>
+        <v>8.842026999067882e-06</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>8.557739506050469e-06</v>
+        <v>8.588813887779576e-06</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>8.286803101669158e-06</v>
+        <v>8.319206773507068e-06</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>8.00311899217048e-06</v>
+        <v>8.036753593668917e-06</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>7.710246199846389e-06</v>
+        <v>7.745002285683676e-06</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>7.411743746988839e-06</v>
+        <v>7.4475007869699e-06</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>7.11117065588978e-06</v>
+        <v>7.147797034946143e-06</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>6.812085948841165e-06</v>
+        <v>6.849438967030959e-06</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>6.518048648134951e-06</v>
+        <v>6.555974520642903e-06</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>6.232617776063089e-06</v>
+        <v>6.270951633200533e-06</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>5.95935235491753e-06</v>
+        <v>5.997918242122397e-06</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>5.701649104480568e-06</v>
+        <v>5.740260865211777e-06</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>5.46064724881622e-06</v>
+        <v>5.499120804895464e-06</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>5.235831706797937e-06</v>
+        <v>5.273994057511209e-06</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>5.026649399554153e-06</v>
+        <v>5.064338828352157e-06</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>4.832547248213307e-06</v>
+        <v>4.86961332271146e-06</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>4.652972173903829e-06</v>
+        <v>4.68927574588226e-06</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>4.487371097754159e-06</v>
+        <v>4.522784303157709e-06</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>4.33519094089273e-06</v>
+        <v>4.369597199830951e-06</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>4.195878624447977e-06</v>
+        <v>4.229172641195135e-06</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>4.068881069548334e-06</v>
+        <v>4.100968832543408e-06</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>3.953645197322343e-06</v>
+        <v>3.984443979169024e-06</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>3.849617928898123e-06</v>
+        <v>3.879056286364808e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>3.75624618540451e-06</v>
+        <v>3.784263959424316e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>3.672976887969578e-06</v>
+        <v>3.69952520364033e-06</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>3.599256957722085e-06</v>
+        <v>3.624298224306322e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>3.534533315790241e-06</v>
+        <v>3.558041226715211e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>3.478252883302553e-06</v>
+        <v>3.50021241616022e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>3.429862581387457e-06</v>
+        <v>3.450269997934496e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>3.388809331173389e-06</v>
+        <v>3.407672177331186e-06</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>3.354540053788784e-06</v>
+        <v>3.371877159643439e-06</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>3.326501670362078e-06</v>
+        <v>3.342343150164401e-06</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>3.304141102021706e-06</v>
+        <v>3.318528354187219e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>3.286905269896101e-06</v>
+        <v>3.299890977005041e-06</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>3.2742410951137e-06</v>
+        <v>3.285889223911015e-06</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>3.265595498802938e-06</v>
+        <v>3.275981300198285e-06</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>3.260415402092249e-06</v>
+        <v>3.269625411160002e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>3.25814772611007e-06</v>
+        <v>3.266279762089312e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>3.258239391984834e-06</v>
+        <v>3.265402558279361e-06</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>3.260137320844978e-06</v>
+        <v>3.266452005023297e-06</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>3.263288433818936e-06</v>
+        <v>3.268886307614268e-06</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>3.267139652035143e-06</v>
+        <v>3.272163671345421e-06</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>3.271137896622034e-06</v>
+        <v>3.275742301509903e-06</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>3.274730088708047e-06</v>
+        <v>3.279080403400862e-06</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>3.277363149421613e-06</v>
+        <v>3.281636182311444e-06</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>3.278483999891169e-06</v>
+        <v>3.282867843534797e-06</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>3.277539561245151e-06</v>
+        <v>3.282233592364068e-06</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>3.273976754611993e-06</v>
+        <v>3.279191634092404e-06</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>3.267246060997499e-06</v>
+        <v>3.273203625929426e-06</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>3.257251091640425e-06</v>
+        <v>3.264170613174008e-06</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>3.244787808487781e-06</v>
+        <v>3.252858929389048e-06</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>3.230756437250722e-06</v>
+        <v>3.240136009879891e-06</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>3.216057203640402e-06</v>
+        <v>3.226869289951878e-06</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>3.201590333367977e-06</v>
+        <v>3.213926204910354e-06</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>3.1882560521446e-06</v>
+        <v>3.202174190060662e-06</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>3.176954585681428e-06</v>
+        <v>3.192480680708146e-06</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>3.168586159689614e-06</v>
+        <v>3.185713112158148e-06</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>3.164050999880314e-06</v>
+        <v>3.182738919716012e-06</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>3.16424933196468e-06</v>
+        <v>3.184425538687079e-06</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>3.170081381653873e-06</v>
+        <v>3.191640404376703e-06</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>3.182447374659027e-06</v>
+        <v>3.2052509520902e-06</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>3.202247536691345e-06</v>
+        <v>3.226124617132966e-06</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>3.230382093461902e-06</v>
+        <v>3.255128834810263e-06</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>3.267751270681924e-06</v>
+        <v>3.293131040427505e-06</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>3.315255294062542e-06</v>
+        <v>3.340998669290014e-06</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>3.373794389314911e-06</v>
+        <v>3.399599156703131e-06</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>3.444268782150186e-06</v>
+        <v>3.469799937972202e-06</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>3.527578698279522e-06</v>
+        <v>3.552468448402568e-06</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>3.624624363414073e-06</v>
+        <v>3.648472123299575e-06</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>3.736306003264993e-06</v>
+        <v>3.758678397968564e-06</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>3.86352384354344e-06</v>
+        <v>3.883954707714879e-06</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>4.007178109960566e-06</v>
+        <v>4.025168487843865e-06</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>4.168169028227526e-06</v>
+        <v>4.183187173660864e-06</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>4.347396824055477e-06</v>
+        <v>4.358878200471221e-06</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>4.545761723155569e-06</v>
+        <v>4.553109003580276e-06</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>4.764163951238963e-06</v>
+        <v>4.766747018293377e-06</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>5.003355418525687e-06</v>
+        <v>5.000534849264222e-06</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>5.262455334364153e-06</v>
+        <v>5.253840928346371e-06</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>5.539571418425979e-06</v>
+        <v>5.525182360842615e-06</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>5.832796317134343e-06</v>
+        <v>5.813063565562842e-06</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>6.140222676912434e-06</v>
+        <v>6.115988961316951e-06</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>6.459943144183432e-06</v>
+        <v>6.432462966914834e-06</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>6.790050365370523e-06</v>
+        <v>6.760990001166386e-06</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>7.128636986896887e-06</v>
+        <v>7.100074482881499e-06</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>7.473795655185711e-06</v>
+        <v>7.44822083087007e-06</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>7.823619016660174e-06</v>
+        <v>7.80393346394199e-06</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>8.176029752498333e-06</v>
+        <v>8.165458551169745e-06</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>8.527600732427119e-06</v>
+        <v>8.528991322020239e-06</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>8.874261138554154e-06</v>
+        <v>8.889748969782831e-06</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>9.211936188783086e-06</v>
+        <v>9.242942664429392e-06</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>9.53655110101757e-06</v>
+        <v>9.583783575931794e-06</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>9.844031093161262e-06</v>
+        <v>9.907482874261903e-06</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>1.013030138311781e-05</v>
+        <v>1.020925172939159e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>1.039128718879086e-05</v>
+        <v>1.048430131129272e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>1.062291372808408e-05</v>
+        <v>1.072784278993716e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>1.082110621890094e-05</v>
+        <v>1.093508733529661e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>1.098178987914561e-05</v>
+        <v>1.110124611734347e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>1.110088992672114e-05</v>
+        <v>1.122153030604899e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>1.117433157953162e-05</v>
+        <v>1.129115107138547e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>1.119804005548043e-05</v>
+        <v>1.130531958332455e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>1.116893114914745e-05</v>
+        <v>1.12605140766223e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>1.109005438743265e-05</v>
+        <v>1.116105855547979e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.096680411429217e-05</v>
+        <v>1.101427632257616e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.08045793825182e-05</v>
+        <v>1.08274967037491e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.060877924490294e-05</v>
+        <v>1.060804902483629e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.038480275423858e-05</v>
+        <v>1.03632626116754e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.013804896331733e-05</v>
+        <v>1.010046679010412e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>9.873916924931365e-06</v>
+        <v>9.826990885960117e-06</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>9.597805691872888e-06</v>
+        <v>9.550164225081078e-06</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>9.315075542718804e-06</v>
+        <v>9.277161874294357e-06</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>9.030245678521177e-06</v>
+        <v>9.011812764713024e-06</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>8.747021476236108e-06</v>
+        <v>8.754708116546873e-06</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>8.469074991144215e-06</v>
+        <v>8.506306583333635e-06</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>8.200078278526101e-06</v>
+        <v>8.267066818611022e-06</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>7.94370339366238e-06</v>
+        <v>8.037447475916761e-06</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>7.703622391833662e-06</v>
+        <v>7.817907208788576e-06</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>7.483507328320558e-06</v>
+        <v>7.60890467076418e-06</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>7.287030258403676e-06</v>
+        <v>7.410898515381301e-06</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>7.117856343026869e-06</v>
+        <v>7.224347134556946e-06</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>6.977403165121246e-06</v>
+        <v>7.049623630936663e-06</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>6.86161816651011e-06</v>
+        <v>6.886893530678224e-06</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>6.765632477772453e-06</v>
+        <v>6.736291383220947e-06</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>6.684577229487262e-06</v>
+        <v>6.597951738004146e-06</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>6.613583552233524e-06</v>
+        <v>6.472009144467132e-06</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>6.547782576590226e-06</v>
+        <v>6.358598152049224e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>6.482305433136356e-06</v>
+        <v>6.257853310189735e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>6.413023398618949e-06</v>
+        <v>6.169923804310136e-06</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>6.341495917948925e-06</v>
+        <v>6.095071300219351e-06</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>6.271919775261856e-06</v>
+        <v>6.033609615654534e-06</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>6.208506198829378e-06</v>
+        <v>5.985852853977653e-06</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>6.15546641692313e-06</v>
+        <v>5.952115118550681e-06</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>6.117011657814754e-06</v>
+        <v>5.932710512735594e-06</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>6.097291998399239e-06</v>
+        <v>5.927962705053963e-06</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>6.098499874697815e-06</v>
+        <v>5.93850157377162e-06</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>6.120503858894659e-06</v>
+        <v>5.96532049066366e-06</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>6.163037451291526e-06</v>
+        <v>6.009433955142768e-06</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>6.225834152189925e-06</v>
+        <v>6.071856466621347e-06</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>6.308627461891681e-06</v>
+        <v>6.153602524512126e-06</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>6.411150880698409e-06</v>
+        <v>6.255686628227627e-06</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>6.533137908911785e-06</v>
+        <v>6.379123277180425e-06</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>6.674296218591174e-06</v>
+        <v>6.524861103356391e-06</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>6.833717754086535e-06</v>
+        <v>6.692278504139706e-06</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>7.009866442262418e-06</v>
+        <v>6.879152300810401e-06</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>7.20117792348491e-06</v>
+        <v>7.083187178153786e-06</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>7.406087838120094e-06</v>
+        <v>7.302087820955182e-06</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>7.623031826534061e-06</v>
+        <v>7.533558913999909e-06</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>7.850445529092893e-06</v>
+        <v>7.775305142073282e-06</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>8.08676458616268e-06</v>
+        <v>8.025031189960622e-06</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>8.330424638109502e-06</v>
+        <v>8.280441742447243e-06</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>8.579895459020954e-06</v>
+        <v>8.539367111240195e-06</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>8.833896652332144e-06</v>
+        <v>8.800557088563274e-06</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>9.091258847954889e-06</v>
+        <v>9.063170092300883e-06</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>9.350813179517402e-06</v>
+        <v>9.326366394232581e-06</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>9.61139078064789e-06</v>
+        <v>9.589306266137909e-06</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>9.871822784974571e-06</v>
+        <v>9.851149979796421e-06</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>1.013094032612565e-05</v>
+        <v>1.011105780698767e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>1.038757453772935e-05</v>
+        <v>1.036819001949119e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>1.064055655341387e-05</v>
+        <v>1.062170688908655e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>1.088869507832021e-05</v>
+        <v>1.087074500293736e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>1.112860913268775e-05</v>
+        <v>1.111212862792589e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>1.135292131260511e-05</v>
+        <v>1.133846178325853e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>1.155382890358821e-05</v>
+        <v>1.154189935764698e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>1.172352919115297e-05</v>
+        <v>1.171459623980293e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>1.18542194608153e-05</v>
+        <v>1.184870731843806e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>1.193809699809113e-05</v>
+        <v>1.193638748226406e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>1.196735908849638e-05</v>
+        <v>1.196979161999263e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>1.193420301754695e-05</v>
+        <v>1.194107462033546e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>1.183082982364685e-05</v>
+        <v>1.184239509375495e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>1.165275487958983e-05</v>
+        <v>1.166919848640314e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>1.140488815233444e-05</v>
+        <v>1.142624689259084e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.109379269788643e-05</v>
+        <v>1.111994178016201e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.072603157225359e-05</v>
+        <v>1.075668461696255e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.030817079886015e-05</v>
+        <v>1.034287983282735e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>9.857068448675768e-06</v>
+        <v>9.895205080496797e-06</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>9.422917341495013e-06</v>
+        <v>9.463611790710049e-06</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>9.062647013238217e-06</v>
+        <v>9.104775788560838e-06</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>8.833186999825301e-06</v>
+        <v>8.875372899142475e-06</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>8.791466406855596e-06</v>
+        <v>8.832078523068452e-06</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>8.965617537848822e-06</v>
+        <v>9.003162119266352e-06</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>9.276983504006304e-06</v>
+        <v>9.311553409240996e-06</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>9.622158622957321e-06</v>
+        <v>9.655769237502721e-06</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>9.899715485277426e-06</v>
+        <v>9.936225094164283e-06</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>1.005961311350368e-05</v>
+        <v>1.010265454915709e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>1.010669675778122e-05</v>
+        <v>1.015746817781638e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>1.004849085304497e-05</v>
+        <v>1.010564790056341e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>9.892519834229854e-06</v>
+        <v>9.952175637819417e-06</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>9.646309231742921e-06</v>
+        <v>9.702034643670619e-06</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>9.324894037354649e-06</v>
+        <v>9.369350445490464e-06</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>8.968749391813343e-06</v>
+        <v>8.999220271972533e-06</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>8.623732490379155e-06</v>
+        <v>8.643293647749185e-06</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>8.335239688233085e-06</v>
+        <v>8.35269391436779e-06</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>8.117742687199141e-06</v>
+        <v>8.143234920468056e-06</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>7.935796012832742e-06</v>
+        <v>7.973735528809708e-06</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>7.749419685537442e-06</v>
+        <v>7.797837144683476e-06</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>7.51939507845641e-06</v>
+        <v>7.570162400110663e-06</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>7.225098284110837e-06</v>
+        <v>7.269298687140253e-06</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>6.865122816362951e-06</v>
+        <v>6.898600692310945e-06</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>6.438948207292369e-06</v>
+        <v>6.46256494454158e-06</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>5.949305019077993e-06</v>
+        <v>5.96781652365915e-06</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>5.41079900788964e-06</v>
+        <v>5.428755569758257e-06</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>4.840746610667949e-06</v>
+        <v>4.861556990265764e-06</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>4.256464264353562e-06</v>
+        <v>4.282395692608539e-06</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>3.675268405887119e-06</v>
+        <v>3.707446584213445e-06</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>3.114475472209262e-06</v>
+        <v>3.152884572507352e-06</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>2.591401900260633e-06</v>
+        <v>2.634884564917123e-06</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>2.123364126981873e-06</v>
+        <v>2.169621468869626e-06</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>1.727678589313966e-06</v>
+        <v>1.773270191792072e-06</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.421418840648235e-06</v>
+        <v>1.461791929557802e-06</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.204718010074245e-06</v>
+        <v>1.236242115987619e-06</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.049991469637514e-06</v>
+        <v>1.073287522388199e-06</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>9.272809451809134e-07</v>
+        <v>9.474727872433701e-07</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>8.188963659702387e-07</v>
+        <v>8.419679085310736e-07</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>7.266841449707481e-07</v>
+        <v>7.536783261157747e-07</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>6.53747323703688e-07</v>
+        <v>6.808181267645906e-07</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>5.996006747185421e-07</v>
+        <v>6.222156683509785e-07</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>5.621529734014339e-07</v>
+        <v>5.76974237317597e-07</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>5.393054683195668e-07</v>
+        <v>5.441984086134625e-07</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>5.289594080401441e-07</v>
+        <v>5.229927571875928e-07</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>5.290160411303688e-07</v>
+        <v>5.124618579890043e-07</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>5.373778691105739e-07</v>
+        <v>5.117104531710212e-07</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>5.523721446120848e-07</v>
+        <v>5.198999671470712e-07</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>5.733673243170671e-07</v>
+        <v>5.363307711097736e-07</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>5.998884840489092e-07</v>
+        <v>5.603241367901339e-07</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>6.314606996309992e-07</v>
+        <v>5.912013359191581e-07</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>6.67609046886725e-07</v>
+        <v>6.282836402278517e-07</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>7.078586016394748e-07</v>
+        <v>6.708923214472208e-07</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>7.517344397126371e-07</v>
+        <v>7.183486513082709e-07</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>7.987616369295996e-07</v>
+        <v>7.699739015420076e-07</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>8.484652691137507e-07</v>
+        <v>8.250893438794371e-07</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>9.003704120884779e-07</v>
+        <v>8.830162500515643e-07</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>9.540021416771704e-07</v>
+        <v>9.430758917893959e-07</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>1.008885533703215e-06</v>
+        <v>1.004589540823937e-06</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>1.064545663990001e-06</v>
+        <v>1.066878468886194e-06</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>1.120507608360916e-06</v>
+        <v>1.129263947707171e-06</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>1.176296442639349e-06</v>
+        <v>1.191067249017876e-06</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>1.231437242648686e-06</v>
+        <v>1.251609644549313e-06</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.285455084212317e-06</v>
+        <v>1.310212406032489e-06</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.337875043153629e-06</v>
+        <v>1.366196805198408e-06</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.388222195296011e-06</v>
+        <v>1.418884113778078e-06</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.436026540298875e-06</v>
+        <v>1.467611706808215e-06</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.48091037695155e-06</v>
+        <v>1.512018821755297e-06</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.522577976794953e-06</v>
+        <v>1.552012786304969e-06</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.560736460812144e-06</v>
+        <v>1.587510247185534e-06</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.595092949986152e-06</v>
+        <v>1.618427851125268e-06</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.625354565300133e-06</v>
+        <v>1.644682244852557e-06</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.651228427737028e-06</v>
+        <v>1.666190075095601e-06</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.67242165828e-06</v>
+        <v>1.682867988582788e-06</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.688641377912027e-06</v>
+        <v>1.694632632042356e-06</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.699594707616223e-06</v>
+        <v>1.701400652202649e-06</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.704988768375631e-06</v>
+        <v>1.703088695791956e-06</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.704530681173312e-06</v>
+        <v>1.699613409538581e-06</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.697927566992326e-06</v>
+        <v>1.690891440170826e-06</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.684886546815733e-06</v>
+        <v>1.676839434416994e-06</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.665114741626595e-06</v>
+        <v>1.657374039005389e-06</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>1.638319272407972e-06</v>
+        <v>1.632411900664314e-06</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>1.604207260142923e-06</v>
+        <v>1.601869666122071e-06</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>1.56248582581451e-06</v>
+        <v>1.565663982106964e-06</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>1.512862090405793e-06</v>
+        <v>1.523711495347295e-06</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.455043174899832e-06</v>
+        <v>1.475928852571367e-06</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>1.389506641761147e-06</v>
+        <v>1.42265580539881e-06</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>1.326467521732742e-06</v>
+        <v>1.369579650404856e-06</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.282815032233157e-06</v>
+        <v>1.326052960627651e-06</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.275568640297753e-06</v>
+        <v>1.301499838548261e-06</v>
       </c>
     </row>
   </sheetData>
